--- a/Finances.xlsx
+++ b/Finances.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samh\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samh\Documents\GitHub\MyNewCadProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Amount</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Sam=+ Laura=Minus</t>
+  </si>
+  <si>
+    <t>yay!</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -485,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G8" si="1">IF(B3="LauraOwesSam",C3,0)+IF(AND(OR(B3="Monthly/EvenlySplit",B3="MoveToFlorida"), A3="Sam"),C3/2,0)</f>
+        <f t="shared" ref="G3:G7" si="1">IF(B3="LauraOwesSam",C3,0)+IF(AND(OR(B3="Monthly/EvenlySplit",B3="MoveToFlorida"), A3="Sam"),C3/2,0)</f>
         <v>7.72</v>
       </c>
     </row>
@@ -581,6 +584,11 @@
       <c r="H8" s="4">
         <f>G8-F8</f>
         <v>589.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
